--- a/pred_ohlcv/54_21/2020-01-11 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BHP ohlcv.xlsx
@@ -2810,7 +2810,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>12826.97910763</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>13442.87910763</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>17622.53730763</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>18622.53730763</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>16928.37770763</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>18124.60750763</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>18124.60750763</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>18124.60750763</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>18510.76140763</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>20729.19120763</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>20712.19120763</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>20707.29120762999</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>19810.89120762999</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>19810.89120762999</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>19810.89120762999</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>19810.89120762999</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>19820.59120762999</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>19801.69120762999</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>19813.19120762999</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>19813.19120762999</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>19819.19120762999</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>19828.99120762999</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>19839.79120762999</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>19831.29120762999</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>19831.29120762999</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>17951.20150762999</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>17951.20150762999</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>17951.20150762999</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>17951.20150762999</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>17951.20150762999</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>17951.20150762999</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>17951.20150762999</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>17928.00150762999</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>17928.00150762999</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>16999.60150762999</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>17008.30150762999</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>17208.30150762999</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>17218.70150762999</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>17218.70150762999</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>17595.94130762999</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>17575.84130762999</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>17578.04130762999</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>17556.14130762999</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>17556.14130762999</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>17556.14130762999</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>17556.14130762999</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>17556.14130762999</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>18094.04130762999</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>17951.38810762999</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>18369.48810762999</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>18389.28810762999</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>18382.08810762999</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>18382.08810762999</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>18382.08810762999</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>18357.68810762999</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>18357.68810762999</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>18435.68810762999</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>18420.28810762999</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>18420.28810762999</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>18420.28810762999</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>18731.88810762999</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>18726.68810762999</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>18948.08810762999</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>18944.98810762999</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>19050.78810762999</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>19047.88810762999</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>19053.98810762999</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>19300.18810762999</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>19298.18810762999</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>19298.18810762999</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>19298.18810762999</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>19604.48810762999</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>19604.48810762999</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>19587.38810762999</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>19787.38810762999</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>19771.88810762999</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>20546.77740762999</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>20546.77740762999</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>21446.77740762999</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>22441.37740762999</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>22454.67740762999</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>22400.79670762999</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>22657.69670762999</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>22503.39670762999</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>23140.69670762999</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>23140.69670762999</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>23139.19670762999</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>24052.69670762999</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>24052.69670762999</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>25139.49670762999</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>26422.79670762999</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>26409.89670762999</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>26722.49670762999</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>27574.49670762999</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>27068.29670762999</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>27078.59670762999</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>27059.19670762998</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>27059.19670762998</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>29065.75870762998</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>28838.15870762998</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>28912.75870762998</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>28895.65870762998</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>29391.05870762999</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>29647.05870762999</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>29647.05870762999</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>29631.45870762999</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>29631.45870762999</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>29760.45870762999</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>29760.45870762999</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>29741.65870762999</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>29741.65870762999</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>29741.65870762999</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>30608.15870762999</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>30601.85870762999</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>31666.85870762999</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>31666.85870762999</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>31662.05870762999</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>31662.05870762999</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>31958.05870762999</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>31958.05870762999</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>31958.05870762999</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>32282.65870762999</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>32648.65870762999</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>32648.65870762999</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>32628.55870762999</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>32628.55870762999</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>32628.55870762999</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>32743.55870762999</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>33181.82960762999</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>34199.63310763</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>34117.56270763</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>34106.36270763</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>34167.49230763</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>34167.49230763</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>34471.09230763</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>35126.79230763</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>35126.79230763</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>36840.92940763</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>36840.92940763</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>36831.22940763</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>37242.15320763</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>37494.55320763</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>37594.55320763</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>37589.75320763</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>37589.75320763</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>37575.25320763</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>37875.25320763</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>37660.05320763</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>37714.35320763</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>37698.75320763</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>37698.75320763</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>37998.75320763</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>37967.12730763001</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>38664.62730763001</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>38593.75270763</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>38593.75270763</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>40036.75270763</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>40036.75270763</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>40026.35270763</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>40733.55270763</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>40724.85270763</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>41315.85270763</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>41620.25270763</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>43037.75270763</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>43037.75270763</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>43819.85270763001</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>43711.95270763001</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>43711.95270763001</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>44079.45270763001</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>44079.45270763001</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>44316.25270763001</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>44296.95270763001</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>44296.95270763001</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>44279.55270763001</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>44278.25270763</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>45396.25270763</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>45594.35270763001</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>46894.35270763001</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>47147.25270763001</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>47116.85270763001</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>47116.85270763001</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>47107.75270763001</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>47107.75270763001</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>47045.05470763001</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>47045.05470763001</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>47244.05470763001</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>47244.05470763001</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>47231.45470763002</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>47231.45470763002</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>47231.45470763002</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>47593.55470763001</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>47593.55470763001</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>48312.25470763001</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>48312.25470763001</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>48312.25470763001</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>48301.35470763001</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>48612.85470763001</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-11 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BHP ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>10121.96570763</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>10112.36570763</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>10116.56570763</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>10116.56570763</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>9510.177807629998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9525.677807629998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9525.677807629998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>8200.868207629997</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>8200.868207629997</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>8219.968207629998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>8219.968207629998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>8219.968207629998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>8219.968207629998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>8219.968207629998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>8203.268207629997</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>8219.368207629997</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>8208.368207629997</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>8208.368207629997</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>8208.368207629997</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>10371.12950763</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>10189.72950763</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>10177.42950763</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>10180.02950763</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>10284.42950763</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10272.02950763</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>10272.02950763</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>10272.02950763</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>10272.02950763</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>10257.42950763</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>10257.42950763</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>10265.32950763</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>10265.32950763</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>10265.32950763</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>10265.32950763</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>10265.32950763</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>10265.32950763</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>10265.32950763</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>10980.89891214</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>10959.09891214</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>10951.33571214</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>10951.33571214</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>10951.33571214</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>10951.33571214</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>10951.33571214</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>10951.33571214</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>10951.33571214</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>10951.33571214</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>14522.77660763</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>14740.77660763</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>13509.83970763</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>13785.63970763</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>13895.63970763</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>13895.63970763</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>13871.11200763</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>13871.11200763</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>13866.91200763</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>14474.71200763</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>14455.11200763</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>14575.11200763</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>16583.21200763</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>16565.77710763</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>16565.77710763</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>16565.77710763</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>16565.77710763</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>16565.77710763</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>16565.77710763</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>16561.67710763</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>17031.67710763</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>17031.67710763</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>17019.97710763</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>17184.87710763</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>17200.87710763</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>17200.87710763</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>17200.87710763</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>17200.87710763</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>17200.87710763</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>17200.87710763</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>17200.87710763</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>17193.77710763</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>17193.77710763</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>17193.77710763</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>17193.77710763</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>17193.77710763</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>17553.77710763</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>17553.77710763</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>17553.77710763</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>17626.53730763</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>17622.53730763</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>17622.53730763</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>18622.53730763</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>19138.13730763</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>19148.13730763</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>19131.43730763</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>19116.33730763</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>19116.33730763</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>19116.33730763</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>19116.33730763</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>19116.33730763</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>19106.63730763</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>19106.63730763</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>19106.63730763</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>19106.63730763</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>19106.63730763</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>19090.03730763</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>16928.37770763</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>16928.37770763</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>18124.60750763</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>18124.60750763</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>19813.19120762999</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>19813.19120762999</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>17595.94130762999</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>17578.04130762999</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>17556.14130762999</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>17556.14130762999</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>17556.14130762999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>17556.14130762999</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>18094.04130762999</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>17951.38810762999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>18369.48810762999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>18389.28810762999</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>18382.08810762999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>18382.08810762999</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>18382.08810762999</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>18357.68810762999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>18357.68810762999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>18435.68810762999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>18420.28810762999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>18420.28810762999</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>18420.28810762999</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>18731.88810762999</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>18726.68810762999</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>18948.08810762999</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>18944.98810762999</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>19050.78810762999</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>19047.88810762999</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>19053.98810762999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>19300.18810762999</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>19298.18810762999</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>19298.18810762999</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>19298.18810762999</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>19604.48810762999</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>19604.48810762999</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>19587.38810762999</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>19787.38810762999</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>19771.88810762999</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>20546.77740762999</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>20546.77740762999</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>21446.77740762999</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>22441.37740762999</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>22454.67740762999</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>22400.79670762999</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>22657.69670762999</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>22503.39670762999</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>23140.69670762999</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>23140.69670762999</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>23139.19670762999</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>24052.69670762999</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>24052.69670762999</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>25139.49670762999</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>26422.79670762999</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>26409.89670762999</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>26722.49670762999</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>27574.49670762999</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>27068.29670762999</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>27078.59670762999</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>27059.19670762998</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>27059.19670762998</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>29065.75870762998</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>28838.15870762998</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>28912.75870762998</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>28895.65870762998</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>29391.05870762999</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>29647.05870762999</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>29647.05870762999</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>29631.45870762999</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>29631.45870762999</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>29760.45870762999</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>29760.45870762999</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>29741.65870762999</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>29741.65870762999</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>29741.65870762999</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>30608.15870762999</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>30601.85870762999</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>31666.85870762999</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>31666.85870762999</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>31662.05870762999</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>31662.05870762999</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>31958.05870762999</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>31958.05870762999</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>31958.05870762999</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>32282.65870762999</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>32648.65870762999</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>32648.65870762999</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>32640.65870762999</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>32628.55870762999</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>32743.55870762999</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>33180.62960762999</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>33399.63310763</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>33399.63310763</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>34199.63310763</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>34869.09230763</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>34857.09230763</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>35115.89230763001</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>35101.49230763</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>36116.49230763</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>36116.49230763</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>36251.82940763</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>36051.82940763</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>36466.32940763</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>36466.32940763</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>36875.32940763</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>36840.92940763</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>36840.92940763</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>36840.92940763</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>36831.22940763</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>36831.22940763</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>37242.15320763</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>37242.15320763</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>37494.55320763</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>37594.55320763</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>37589.75320763</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>37589.75320763</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>37575.25320763</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>37875.25320763</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>37660.05320763</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>37714.35320763</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>37698.75320763</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>37698.75320763</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>37998.75320763</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>37967.12730763001</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>38664.62730763001</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>38593.75270763</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>38593.75270763</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>40036.75270763</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>40036.75270763</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>40026.35270763</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>40733.55270763</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>40724.85270763</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>41315.85270763</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>41620.25270763</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>43037.75270763</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>43037.75270763</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>43819.85270763001</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>43711.95270763001</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>43711.95270763001</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>44079.45270763001</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>44079.45270763001</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>44316.25270763001</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>44296.95270763001</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>44296.95270763001</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>44279.55270763001</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>44278.25270763</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>45396.25270763</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>45594.35270763001</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>46894.35270763001</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>47147.25270763001</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>47116.85270763001</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>47116.85270763001</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>47107.75270763001</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>47107.75270763001</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
